--- a/results/mp/logistic/home-spam/confidence/42/stop-words-topk-desired-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/home-spam/confidence/42/stop-words-topk-desired-masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="124">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,37 +43,58 @@
     <t>return</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
     <t>waste</t>
   </si>
   <si>
+    <t>useless</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>stopped</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
-    <t>stopped</t>
-  </si>
-  <si>
     <t>broken</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>poor</t>
+    <t>guess</t>
   </si>
   <si>
     <t>thin</t>
   </si>
   <si>
-    <t>maybe</t>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>months</t>
+  </si>
+  <si>
+    <t>filters</t>
+  </si>
+  <si>
+    <t>sticks</t>
   </si>
   <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>difficult</t>
+    <t>filter</t>
   </si>
   <si>
     <t>grind</t>
@@ -82,103 +103,103 @@
     <t>plastic</t>
   </si>
   <si>
-    <t>months</t>
-  </si>
-  <si>
     <t>cheap</t>
   </si>
   <si>
     <t>sent</t>
   </si>
   <si>
-    <t>filter</t>
+    <t>disappointing</t>
   </si>
   <si>
     <t>back</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>disappointing</t>
+    <t>however</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>ended</t>
   </si>
   <si>
     <t>lid</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>useless</t>
-  </si>
-  <si>
-    <t>ended</t>
-  </si>
-  <si>
-    <t>filters</t>
-  </si>
-  <si>
-    <t>guess</t>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>poorly</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>returning</t>
+  </si>
+  <si>
+    <t>seal</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>side</t>
+  </si>
+  <si>
+    <t>thick</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>received</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>sticks</t>
-  </si>
-  <si>
-    <t>received</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>fl</t>
+    <t>spray</t>
+  </si>
+  <si>
+    <t>egg</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>send</t>
+  </si>
+  <si>
+    <t>wo</t>
+  </si>
+  <si>
+    <t>iron</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>china</t>
+  </si>
+  <si>
+    <t>lasted</t>
+  </si>
+  <si>
+    <t>unit</t>
   </si>
   <si>
     <t>cracked</t>
   </si>
   <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>iron</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>noisy</t>
-  </si>
-  <si>
-    <t>poorly</t>
-  </si>
-  <si>
-    <t>send</t>
-  </si>
-  <si>
-    <t>wo</t>
-  </si>
-  <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>china</t>
-  </si>
-  <si>
-    <t>spray</t>
-  </si>
-  <si>
-    <t>egg</t>
-  </si>
-  <si>
-    <t>seal</t>
-  </si>
-  <si>
-    <t>lasted</t>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>mixer</t>
+  </si>
+  <si>
+    <t>glass</t>
   </si>
   <si>
     <t>fit</t>
@@ -187,75 +208,108 @@
     <t>machine</t>
   </si>
   <si>
-    <t>glass</t>
-  </si>
-  <si>
-    <t>unit</t>
+    <t>thought</t>
   </si>
   <si>
     <t>okay</t>
   </si>
   <si>
-    <t>probably</t>
+    <t>tried</t>
   </si>
   <si>
     <t>together</t>
   </si>
   <si>
-    <t>side</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>rust</t>
+    <t>less</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>break</t>
   </si>
   <si>
     <t>otherwise</t>
   </si>
   <si>
+    <t>motor</t>
+  </si>
+  <si>
+    <t>instructions</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>started</t>
+  </si>
+  <si>
     <t>hard</t>
   </si>
   <si>
-    <t>found</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>tried</t>
+    <t>shape</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>working</t>
   </si>
   <si>
     <t>bottom</t>
   </si>
   <si>
-    <t>less</t>
+    <t>maker</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>even</t>
   </si>
   <si>
     <t>think</t>
   </si>
   <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>even</t>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>product</t>
   </si>
   <si>
     <t>water</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>would</t>
+    <t>money</t>
   </si>
   <si>
     <t>get</t>
   </si>
   <si>
-    <t>product</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -265,12 +319,12 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>awesome</t>
   </si>
   <si>
@@ -286,40 +340,49 @@
     <t>salad</t>
   </si>
   <si>
-    <t>amazing</t>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>glad</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>highly</t>
   </si>
   <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>mas</t>
-  </si>
-  <si>
-    <t>glad</t>
+    <t>wonderful</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>handy</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
-    <t>wonderful</t>
+    <t>cake</t>
   </si>
   <si>
     <t>easy</t>
+  </si>
+  <si>
+    <t>works</t>
   </si>
   <si>
     <t>positive</t>
@@ -680,7 +743,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q74"/>
+  <dimension ref="A1:Q92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -688,10 +751,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="J1" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -770,7 +833,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="K3">
         <v>0.946236559139785</v>
@@ -799,13 +862,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9595959595959596</v>
+        <v>0.96</v>
       </c>
       <c r="C4">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="D4">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -817,19 +880,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="K4">
-        <v>0.9375</v>
+        <v>0.921875</v>
       </c>
       <c r="L4">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M4">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -841,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -849,13 +912,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9576271186440678</v>
+        <v>0.9595959595959596</v>
       </c>
       <c r="C5">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="D5">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -867,19 +930,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="K5">
-        <v>0.8847457627118644</v>
+        <v>0.8885448916408669</v>
       </c>
       <c r="L5">
-        <v>261</v>
+        <v>574</v>
       </c>
       <c r="M5">
-        <v>261</v>
+        <v>574</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -891,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>34</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -899,13 +962,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9081081081081082</v>
+        <v>0.940677966101695</v>
       </c>
       <c r="C6">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="D6">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -917,19 +980,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="K6">
-        <v>0.8839009287925697</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="L6">
-        <v>571</v>
+        <v>255</v>
       </c>
       <c r="M6">
-        <v>571</v>
+        <v>255</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -941,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -949,13 +1012,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9056603773584906</v>
+        <v>0.925</v>
       </c>
       <c r="C7">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D7">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -967,10 +1030,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="K7">
         <v>0.8478260869565217</v>
@@ -999,13 +1062,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9</v>
+        <v>0.9245283018867925</v>
       </c>
       <c r="C8">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="D8">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1017,10 +1080,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="K8">
         <v>0.8181818181818182</v>
@@ -1049,13 +1112,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8740740740740741</v>
+        <v>0.9245283018867925</v>
       </c>
       <c r="C9">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="D9">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1067,19 +1130,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="K9">
-        <v>0.7662337662337663</v>
+        <v>0.7792207792207793</v>
       </c>
       <c r="L9">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M9">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1091,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1099,13 +1162,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.86</v>
+        <v>0.9038461538461539</v>
       </c>
       <c r="C10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1117,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="K10">
-        <v>0.631578947368421</v>
+        <v>0.6973684210526315</v>
       </c>
       <c r="L10">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="M10">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1141,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1149,13 +1212,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8493150684931506</v>
+        <v>0.9027027027027027</v>
       </c>
       <c r="C11">
-        <v>62</v>
+        <v>167</v>
       </c>
       <c r="D11">
-        <v>62</v>
+        <v>167</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1167,10 +1230,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="K11">
         <v>0.6027397260273972</v>
@@ -1199,13 +1262,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8490566037735849</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C12">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="D12">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1217,19 +1280,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="K12">
-        <v>0.5862068965517241</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L12">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="M12">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1241,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1249,37 +1312,37 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8449612403100775</v>
+        <v>0.8740740740740741</v>
       </c>
       <c r="C13">
+        <v>118</v>
+      </c>
+      <c r="D13">
+        <v>118</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>17</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D13">
-        <v>109</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>20</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="K13">
-        <v>0.5600000000000001</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L13">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="M13">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1291,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>77</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1299,13 +1362,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.8235294117647058</v>
+        <v>0.8653846153846154</v>
       </c>
       <c r="C14">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D14">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1317,19 +1380,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="K14">
-        <v>0.5405405405405406</v>
+        <v>0.5371428571428571</v>
       </c>
       <c r="L14">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="M14">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1341,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1349,13 +1412,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.8169014084507042</v>
+        <v>0.863013698630137</v>
       </c>
       <c r="C15">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D15">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1367,19 +1430,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="K15">
-        <v>0.5238095238095238</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L15">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="M15">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1391,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1399,13 +1462,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.8040540540540541</v>
+        <v>0.8382352941176471</v>
       </c>
       <c r="C16">
-        <v>119</v>
+        <v>57</v>
       </c>
       <c r="D16">
-        <v>119</v>
+        <v>57</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1417,19 +1480,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="K16">
-        <v>0.5111111111111111</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="L16">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M16">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1441,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1449,13 +1512,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.8018867924528302</v>
+        <v>0.8301886792452831</v>
       </c>
       <c r="C17">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D17">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1467,19 +1530,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="K17">
-        <v>0.5061728395061729</v>
+        <v>0.4504504504504505</v>
       </c>
       <c r="L17">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M17">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1491,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1499,13 +1562,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.8</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C18">
-        <v>156</v>
+        <v>36</v>
       </c>
       <c r="D18">
-        <v>156</v>
+        <v>36</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1517,19 +1580,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="K18">
-        <v>0.4848484848484849</v>
+        <v>0.4057971014492754</v>
       </c>
       <c r="L18">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M18">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1541,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1549,13 +1612,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.7818181818181819</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="C19">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D19">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1567,19 +1630,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="K19">
-        <v>0.4791666666666667</v>
+        <v>0.4052969502407704</v>
       </c>
       <c r="L19">
-        <v>23</v>
+        <v>505</v>
       </c>
       <c r="M19">
-        <v>23</v>
+        <v>505</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1591,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>25</v>
+        <v>741</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1599,13 +1662,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7701149425287356</v>
+        <v>0.813953488372093</v>
       </c>
       <c r="C20">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="D20">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1617,19 +1680,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="K20">
-        <v>0.3731942215088282</v>
+        <v>0.4</v>
       </c>
       <c r="L20">
-        <v>465</v>
+        <v>16</v>
       </c>
       <c r="M20">
-        <v>465</v>
+        <v>16</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1641,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>781</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1649,37 +1712,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.75</v>
+        <v>0.8045977011494253</v>
       </c>
       <c r="C21">
+        <v>70</v>
+      </c>
+      <c r="D21">
+        <v>70</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>17</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D21">
-        <v>117</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>39</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="K21">
-        <v>0.2957746478873239</v>
+        <v>0.3469387755102041</v>
       </c>
       <c r="L21">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M21">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1691,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1699,13 +1762,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.75</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="C22">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D22">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1717,19 +1780,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="K22">
-        <v>0.2608695652173913</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="L22">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M22">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1741,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1749,37 +1812,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.7407407407407407</v>
+        <v>0.8027210884353742</v>
       </c>
       <c r="C23">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="D23">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="K23">
-        <v>0.03698630136986301</v>
+        <v>0.2535211267605634</v>
       </c>
       <c r="L23">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="M23">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1791,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>703</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1799,13 +1862,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.7345132743362832</v>
+        <v>0.8</v>
       </c>
       <c r="C24">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="D24">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1817,7 +1880,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>30</v>
+        <v>39</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K24">
+        <v>0.2403846153846154</v>
+      </c>
+      <c r="L24">
+        <v>25</v>
+      </c>
+      <c r="M24">
+        <v>25</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1825,13 +1912,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.7307692307692307</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="C25">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D25">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1843,7 +1930,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K25">
+        <v>0.1479452054794521</v>
+      </c>
+      <c r="L25">
+        <v>108</v>
+      </c>
+      <c r="M25">
+        <v>108</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>622</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1851,13 +1962,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.7</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C26">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D26">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1869,7 +1980,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K26">
+        <v>0.02122015915119363</v>
+      </c>
+      <c r="L26">
+        <v>16</v>
+      </c>
+      <c r="M26">
+        <v>17</v>
+      </c>
+      <c r="N26">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O26">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P26" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>738</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1877,13 +2012,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6666666666666666</v>
+        <v>0.7564102564102564</v>
       </c>
       <c r="C27">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="D27">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1895,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1903,13 +2038,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6590909090909091</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="C28">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="D28">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1921,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1929,13 +2064,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.6538461538461539</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C29">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D29">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1947,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1955,13 +2090,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.6504854368932039</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="C30">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="D30">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1973,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1981,13 +2116,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.6363636363636364</v>
+        <v>0.6991150442477876</v>
       </c>
       <c r="C31">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D31">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1999,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2007,13 +2142,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.6296296296296297</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C32">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D32">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2025,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2033,13 +2168,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.6153846153846154</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C33">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="D33">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2051,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2059,13 +2194,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.6136363636363636</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="C34">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D34">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2077,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2085,13 +2220,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.61</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="C35">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="D35">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2103,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2111,13 +2246,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.5882352941176471</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="C36">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D36">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2129,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2137,13 +2272,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.5576923076923077</v>
+        <v>0.66</v>
       </c>
       <c r="C37">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="D37">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2155,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2163,13 +2298,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.5555555555555556</v>
+        <v>0.6481481481481481</v>
       </c>
       <c r="C38">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D38">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2181,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2189,13 +2324,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.553072625698324</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C39">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="D39">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2207,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>80</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2215,13 +2350,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.5172413793103449</v>
+        <v>0.6464646464646465</v>
       </c>
       <c r="C40">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="D40">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2233,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2241,13 +2376,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.5172413793103449</v>
+        <v>0.6442307692307693</v>
       </c>
       <c r="C41">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="D41">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2259,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2267,13 +2402,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.5</v>
+        <v>0.6407766990291263</v>
       </c>
       <c r="C42">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="D42">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2285,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2293,13 +2428,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.4878048780487805</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C43">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D43">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2311,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2319,13 +2454,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.4857142857142857</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="C44">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D44">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2337,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2345,7 +2480,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.4857142857142857</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="C45">
         <v>17</v>
@@ -2363,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2371,13 +2506,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.4848484848484849</v>
+        <v>0.5625</v>
       </c>
       <c r="C46">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D46">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2389,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2397,13 +2532,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.4838709677419355</v>
+        <v>0.5609756097560976</v>
       </c>
       <c r="C47">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D47">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2415,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2423,13 +2558,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.4705882352941176</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C48">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D48">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2441,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2449,13 +2584,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.4576271186440678</v>
+        <v>0.5474860335195531</v>
       </c>
       <c r="C49">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="D49">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2467,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>32</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2475,13 +2610,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.455</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="C50">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="D50">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2493,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>109</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2501,13 +2636,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.4536082474226804</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="C51">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D51">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2519,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>53</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2527,13 +2662,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.4426229508196721</v>
+        <v>0.5394736842105263</v>
       </c>
       <c r="C52">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D52">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2545,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2553,13 +2688,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.4342105263157895</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C53">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D53">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2571,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2579,13 +2714,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.4090909090909091</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C54">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D54">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2597,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2605,13 +2740,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.3947368421052632</v>
+        <v>0.5</v>
       </c>
       <c r="C55">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D55">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2623,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2631,13 +2766,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.391304347826087</v>
+        <v>0.4918032786885246</v>
       </c>
       <c r="C56">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D56">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2649,7 +2784,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2657,13 +2792,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.3888888888888889</v>
+        <v>0.485</v>
       </c>
       <c r="C57">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="D57">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2675,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>33</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2683,7 +2818,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.373015873015873</v>
+        <v>0.4845360824742268</v>
       </c>
       <c r="C58">
         <v>47</v>
@@ -2701,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>79</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2709,13 +2844,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.345679012345679</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C59">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D59">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2727,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2735,13 +2870,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.3333333333333333</v>
+        <v>0.4696969696969697</v>
       </c>
       <c r="C60">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D60">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2753,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2761,13 +2896,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.3238095238095238</v>
+        <v>0.4646464646464646</v>
       </c>
       <c r="C61">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="D61">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2779,7 +2914,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>142</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2787,13 +2922,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.2857142857142857</v>
+        <v>0.4565217391304348</v>
       </c>
       <c r="C62">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D62">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2805,7 +2940,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2813,13 +2948,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.2776280323450135</v>
+        <v>0.4482758620689655</v>
       </c>
       <c r="C63">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="D63">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2831,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>268</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2839,13 +2974,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.2323232323232323</v>
+        <v>0.4468085106382979</v>
       </c>
       <c r="C64">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D64">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2857,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>76</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2865,13 +3000,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1807228915662651</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="C65">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D65">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2883,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>68</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2891,13 +3026,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1724137931034483</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="C66">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D66">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2909,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>72</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2917,13 +3052,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.1621621621621622</v>
+        <v>0.4146341463414634</v>
       </c>
       <c r="C67">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D67">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2935,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>93</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2943,13 +3078,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1360544217687075</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C68">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="D68">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -2961,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>254</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2969,13 +3104,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.1348314606741573</v>
+        <v>0.3692722371967655</v>
       </c>
       <c r="C69">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="D69">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2987,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>154</v>
+        <v>234</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2995,7 +3130,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.0989010989010989</v>
+        <v>0.36</v>
       </c>
       <c r="C70">
         <v>18</v>
@@ -3013,7 +3148,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>164</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3021,13 +3156,13 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.09677419354838709</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="C71">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D71">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3039,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>168</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3047,13 +3182,13 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.07210884353741497</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C72">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D72">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3065,7 +3200,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>682</v>
+        <v>140</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3073,13 +3208,13 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.04146341463414634</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="C73">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D73">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -3091,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>393</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3099,13 +3234,13 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.03650586701434159</v>
+        <v>0.2781456953642384</v>
       </c>
       <c r="C74">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D74">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -3117,7 +3252,475 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>739</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75">
+        <v>0.2620689655172414</v>
+      </c>
+      <c r="C75">
+        <v>38</v>
+      </c>
+      <c r="D75">
+        <v>38</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75" t="b">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76">
+        <v>0.2560975609756098</v>
+      </c>
+      <c r="C76">
+        <v>21</v>
+      </c>
+      <c r="D76">
+        <v>21</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76" t="b">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77">
+        <v>0.2530120481927711</v>
+      </c>
+      <c r="C77">
+        <v>21</v>
+      </c>
+      <c r="D77">
+        <v>21</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77" t="b">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78">
+        <v>0.25</v>
+      </c>
+      <c r="C78">
+        <v>21</v>
+      </c>
+      <c r="D78">
+        <v>22</v>
+      </c>
+      <c r="E78">
+        <v>0.05</v>
+      </c>
+      <c r="F78">
+        <v>0.95</v>
+      </c>
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79">
+        <v>0.2312925170068027</v>
+      </c>
+      <c r="C79">
+        <v>68</v>
+      </c>
+      <c r="D79">
+        <v>68</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79" t="b">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80">
+        <v>0.2303370786516854</v>
+      </c>
+      <c r="C80">
+        <v>41</v>
+      </c>
+      <c r="D80">
+        <v>41</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81">
+        <v>0.1981981981981982</v>
+      </c>
+      <c r="C81">
+        <v>22</v>
+      </c>
+      <c r="D81">
+        <v>22</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81" t="b">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82">
+        <v>0.1650485436893204</v>
+      </c>
+      <c r="C82">
+        <v>17</v>
+      </c>
+      <c r="D82">
+        <v>17</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82" t="b">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83">
+        <v>0.1605351170568562</v>
+      </c>
+      <c r="C83">
+        <v>48</v>
+      </c>
+      <c r="D83">
+        <v>48</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83" t="b">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84">
+        <v>0.1504424778761062</v>
+      </c>
+      <c r="C84">
+        <v>17</v>
+      </c>
+      <c r="D84">
+        <v>17</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84" t="b">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85">
+        <v>0.1451612903225807</v>
+      </c>
+      <c r="C85">
+        <v>27</v>
+      </c>
+      <c r="D85">
+        <v>27</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85" t="b">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="C86">
+        <v>105</v>
+      </c>
+      <c r="D86">
+        <v>105</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86" t="b">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87">
+        <v>0.1162790697674419</v>
+      </c>
+      <c r="C87">
+        <v>15</v>
+      </c>
+      <c r="D87">
+        <v>15</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87" t="b">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88">
+        <v>0.1060606060606061</v>
+      </c>
+      <c r="C88">
+        <v>21</v>
+      </c>
+      <c r="D88">
+        <v>21</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88" t="b">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89">
+        <v>0.1003911342894394</v>
+      </c>
+      <c r="C89">
+        <v>77</v>
+      </c>
+      <c r="D89">
+        <v>77</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89" t="b">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="C90">
+        <v>18</v>
+      </c>
+      <c r="D90">
+        <v>18</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90" t="b">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B91">
+        <v>0.06986899563318777</v>
+      </c>
+      <c r="C91">
+        <v>16</v>
+      </c>
+      <c r="D91">
+        <v>16</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91" t="b">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B92">
+        <v>0.06341463414634146</v>
+      </c>
+      <c r="C92">
+        <v>26</v>
+      </c>
+      <c r="D92">
+        <v>26</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92" t="b">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>384</v>
       </c>
     </row>
   </sheetData>
